--- a/levene.xlsx
+++ b/levene.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="correlación" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="98">
   <si>
     <t xml:space="preserve">$Y_i$</t>
   </si>
@@ -140,46 +140,109 @@
     <t xml:space="preserve">$[90-100]$</t>
   </si>
   <si>
-    <t xml:space="preserve">CLASE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fi*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hi%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi*%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S*</t>
+    <t xml:space="preserve">Pearson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$y_i$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${f}_i$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$y_i*f_i$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$f_i(y_i-\overline{x})^2$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$[5,10)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$[10,15)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$[15,20)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$[20,25)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$[25,30]$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$[30,35]$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $\sum$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$\overline{x}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$Me$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$s$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$Mo$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As(Me)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As(Mo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yule Bowley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$Me=Q_2$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$Q_1$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$Q_3$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$f_i(y_i-\overline{x})^3 $</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curtosis-s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$f_i(y_i-\overline{x}) ^4 $</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curtosis-p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$P_{90}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$P_{10}$</t>
   </si>
   <si>
     <t xml:space="preserve">$[y_1-y_2)$</t>
@@ -262,7 +325,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -343,7 +406,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -380,7 +443,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -401,16 +476,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="1" sqref="A1:K5 E30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K102" activeCellId="0" sqref="K102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="18.06"/>
@@ -1504,7 +1581,7 @@
       </c>
       <c r="H36" s="2" t="n">
         <f aca="false">SUM($F$31:F43)</f>
-        <v>84</v>
+        <v>75.5</v>
       </c>
       <c r="I36" s="6" t="n">
         <f aca="false">F36/$F$39</f>
@@ -1516,7 +1593,7 @@
       </c>
       <c r="K36" s="6" t="n">
         <f aca="false">H36/$F$19</f>
-        <v>1.12</v>
+        <v>1.00666666666667</v>
       </c>
       <c r="L36" s="6" t="n">
         <f aca="false">I36*100</f>
@@ -1528,7 +1605,7 @@
       </c>
       <c r="N36" s="6" t="n">
         <f aca="false">K36*100</f>
-        <v>112</v>
+        <v>100.666666666667</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1544,7 +1621,7 @@
       </c>
       <c r="H37" s="2" t="n">
         <f aca="false">SUM($F$31:F44)</f>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I37" s="6" t="n">
         <f aca="false">F37/$F$39</f>
@@ -1556,7 +1633,7 @@
       </c>
       <c r="K37" s="6" t="n">
         <f aca="false">H37/$F$19</f>
-        <v>1.12</v>
+        <v>1.17333333333333</v>
       </c>
       <c r="L37" s="6" t="n">
         <f aca="false">I37*100</f>
@@ -1568,7 +1645,7 @@
       </c>
       <c r="N37" s="6" t="n">
         <f aca="false">K37*100</f>
-        <v>112</v>
+        <v>117.333333333333</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1584,7 +1661,7 @@
       </c>
       <c r="H38" s="2" t="n">
         <f aca="false">SUM($F$31:F45)</f>
-        <v>84</v>
+        <v>105.5</v>
       </c>
       <c r="I38" s="6" t="n">
         <f aca="false">F38/$F$39</f>
@@ -1596,7 +1673,7 @@
       </c>
       <c r="K38" s="6" t="n">
         <f aca="false">H38/$F$19</f>
-        <v>1.12</v>
+        <v>1.40666666666667</v>
       </c>
       <c r="L38" s="6" t="n">
         <f aca="false">I38*100</f>
@@ -1608,7 +1685,7 @@
       </c>
       <c r="N38" s="6" t="n">
         <f aca="false">K38*100</f>
-        <v>112</v>
+        <v>140.666666666667</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1643,8 +1720,10 @@
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="2"/>
+    <row r="41" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1657,7 +1736,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E42" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>40</v>
@@ -1668,317 +1747,1137 @@
       <c r="H42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="I42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K42" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M42" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N42" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
+      <c r="F43" s="5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <f aca="false">F43*G43</f>
+        <v>7.5</v>
+      </c>
+      <c r="I43" s="9" t="n">
+        <f aca="false">G43</f>
+        <v>1</v>
+      </c>
+      <c r="J43" s="10" t="n">
+        <f aca="false">G43*(F43-$H$50)^2</f>
+        <v>280.5625</v>
+      </c>
+      <c r="K43" s="10"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <f aca="false">F44*G44</f>
+        <v>25</v>
+      </c>
+      <c r="I44" s="9" t="n">
+        <f aca="false">SUM($G$43:G44)</f>
+        <v>3</v>
+      </c>
+      <c r="J44" s="10" t="n">
+        <f aca="false">G44*(F44-$H$50)^2</f>
+        <v>276.125</v>
+      </c>
+      <c r="K44" s="10"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <f aca="false">F45*G45</f>
+        <v>122.5</v>
+      </c>
+      <c r="I45" s="9" t="n">
+        <f aca="false">SUM($G$43:G45)</f>
+        <v>10</v>
+      </c>
+      <c r="J45" s="10" t="n">
+        <f aca="false">G45*(F45-$H$50)^2</f>
+        <v>318.9375</v>
+      </c>
+      <c r="K45" s="10"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <f aca="false">F46*G46</f>
+        <v>225</v>
+      </c>
+      <c r="I46" s="9" t="n">
+        <f aca="false">SUM($G$43:G46)</f>
+        <v>20</v>
+      </c>
+      <c r="J46" s="10" t="n">
+        <f aca="false">G46*(F46-$H$50)^2</f>
+        <v>30.625</v>
+      </c>
+      <c r="K46" s="10"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E47" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <f aca="false">F47*G47</f>
+        <v>330</v>
+      </c>
+      <c r="I47" s="9" t="n">
+        <f aca="false">SUM($G$43:G47)</f>
+        <v>32</v>
+      </c>
+      <c r="J47" s="10" t="n">
+        <f aca="false">G47*(F47-$H$50)^2</f>
+        <v>126.75</v>
+      </c>
+      <c r="K47" s="10"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <f aca="false">F48*G48</f>
+        <v>260</v>
+      </c>
+      <c r="I48" s="9" t="n">
+        <f aca="false">SUM($G$43:G48)</f>
+        <v>40</v>
+      </c>
+      <c r="J48" s="10" t="n">
+        <f aca="false">G48*(F48-$H$50)^2</f>
+        <v>544.5</v>
+      </c>
+      <c r="K48" s="10"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E49" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.25</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.73</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.7</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.02</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.74</v>
-      </c>
-      <c r="J49" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.31</v>
-      </c>
-      <c r="K49" s="9" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.49</v>
-      </c>
-      <c r="L49" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.48</v>
-      </c>
-      <c r="M49" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.18</v>
-      </c>
-      <c r="N49" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.8</v>
-      </c>
+      <c r="E49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2" t="n">
+        <f aca="false">SUM(G43:G48)</f>
+        <v>40</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <f aca="false">SUM(H43:H48)</f>
+        <v>970</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="2" t="n">
+        <f aca="false">SUM(J43:J48)</f>
+        <v>1577.5</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E50" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.09</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.32</v>
-      </c>
-      <c r="G50" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.26</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.94</v>
-      </c>
-      <c r="I50" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.84</v>
-      </c>
-      <c r="J50" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.41</v>
-      </c>
-      <c r="K50" s="9" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.06</v>
-      </c>
-      <c r="L50" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.87</v>
-      </c>
-      <c r="M50" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.57</v>
-      </c>
-      <c r="N50" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.29</v>
-      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <f aca="false">H49/G49</f>
+        <v>24.25</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J50" s="11" t="n">
+        <f aca="false">20+(20-10)/(10)*5</f>
+        <v>25</v>
+      </c>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E51" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.31</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G51" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.12</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.85</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.16</v>
-      </c>
-      <c r="J51" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.83</v>
-      </c>
-      <c r="K51" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.45</v>
-      </c>
-      <c r="L51" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.2</v>
-      </c>
-      <c r="M51" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.53</v>
-      </c>
-      <c r="N51" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.95</v>
-      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <f aca="false">SQRT(J49/(G49-1))</f>
+        <v>6.35993065596772</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J51" s="11" t="n">
+        <f aca="false">25+(10-7)/(3+2)*5</f>
+        <v>28</v>
+      </c>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E52" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.45</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.06</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.94</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.57</v>
-      </c>
-      <c r="I52" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.48</v>
-      </c>
-      <c r="J52" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.2</v>
-      </c>
-      <c r="K52" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.55</v>
-      </c>
-      <c r="L52" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.24</v>
-      </c>
-      <c r="M52" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.83</v>
-      </c>
-      <c r="N52" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.92</v>
-      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <f aca="false">3*(H50-J50)/H51</f>
+        <v>-0.353777442194084</v>
+      </c>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E53" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.29</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.89</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.43</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.48</v>
-      </c>
-      <c r="I53" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.31</v>
-      </c>
-      <c r="J53" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.3</v>
-      </c>
-      <c r="K53" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.4</v>
-      </c>
-      <c r="L53" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.66</v>
-      </c>
-      <c r="M53" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.65</v>
-      </c>
-      <c r="N53" s="0" t="n">
-        <f aca="true">ROUND( RAND(),2)</f>
-        <v>0.03</v>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <f aca="false">(H50-J51)/H51</f>
+        <v>-0.589629070323473</v>
+      </c>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E54" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E56" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <f aca="false">F56*G56</f>
+        <v>7.5</v>
+      </c>
+      <c r="I56" s="9" t="n">
+        <f aca="false">G56</f>
+        <v>1</v>
+      </c>
+      <c r="J56" s="10"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <f aca="false">F57*G57</f>
+        <v>25</v>
+      </c>
+      <c r="I57" s="9" t="n">
+        <f aca="false">SUM($G$56:G57)</f>
+        <v>3</v>
+      </c>
+      <c r="J57" s="10"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <f aca="false">F58*G58</f>
+        <v>122.5</v>
+      </c>
+      <c r="I58" s="9" t="n">
+        <f aca="false">SUM($G$56:G58)</f>
+        <v>10</v>
+      </c>
+      <c r="J58" s="10"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E59" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <f aca="false">F59*G59</f>
+        <v>225</v>
+      </c>
+      <c r="I59" s="9" t="n">
+        <f aca="false">SUM($G$56:G59)</f>
+        <v>20</v>
+      </c>
+      <c r="J59" s="10"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E60" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <f aca="false">F60*G60</f>
+        <v>330</v>
+      </c>
+      <c r="I60" s="9" t="n">
+        <f aca="false">SUM($G$56:G60)</f>
+        <v>32</v>
+      </c>
+      <c r="J60" s="10"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <f aca="false">F61*G61</f>
+        <v>260</v>
+      </c>
+      <c r="I61" s="9" t="n">
+        <f aca="false">SUM($G$56:G61)</f>
+        <v>40</v>
+      </c>
+      <c r="J61" s="10"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2" t="n">
+        <f aca="false">SUM(G56:G61)</f>
+        <v>40</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <f aca="false">SUM(H56:H61)</f>
+        <v>970</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E63" s="4"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I63" s="11" t="n">
+        <f aca="false">20+(20-10)/(10)*5</f>
+        <v>25</v>
+      </c>
+      <c r="J63" s="11"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I64" s="10" t="n">
+        <f aca="false">15+(10-3)/(7)*5</f>
+        <v>20</v>
+      </c>
+      <c r="J64" s="10"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E65" s="2"/>
+      <c r="F65" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G65" s="2" t="n">
+        <f aca="false">(I64+I65-2*I63)/(I65-I64)</f>
+        <v>-0.0909090909090904</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I65" s="10" t="n">
+        <f aca="false">25+(30-20)/(12)*5</f>
+        <v>29.1666666666667</v>
+      </c>
+      <c r="J65" s="10"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E66" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E67" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E68" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" s="5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G68" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <f aca="false">F68*G68</f>
+        <v>7.5</v>
+      </c>
+      <c r="I68" s="10" t="n">
+        <f aca="false">G68*(F68-$H$50)^3</f>
+        <v>-4699.421875</v>
+      </c>
+      <c r="J68" s="10" t="n">
+        <f aca="false">G68*(F68-$H$50)^2</f>
+        <v>280.5625</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <f aca="false">F69*G69</f>
+        <v>25</v>
+      </c>
+      <c r="I69" s="10" t="n">
+        <f aca="false">G69*(F69-$H$50)^3</f>
+        <v>-3244.46875</v>
+      </c>
+      <c r="J69" s="10" t="n">
+        <f aca="false">G69*(F69-$H$50)^2</f>
+        <v>276.125</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E70" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <f aca="false">F70*G70</f>
+        <v>122.5</v>
+      </c>
+      <c r="I70" s="10" t="n">
+        <f aca="false">G70*(F70-$H$50)^3</f>
+        <v>-2152.828125</v>
+      </c>
+      <c r="J70" s="10" t="n">
+        <f aca="false">G70*(F70-$H$50)^2</f>
+        <v>318.9375</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E71" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <f aca="false">F71*G71</f>
+        <v>225</v>
+      </c>
+      <c r="I71" s="10" t="n">
+        <f aca="false">G71*(F71-$H$50)^3</f>
+        <v>-53.59375</v>
+      </c>
+      <c r="J71" s="10" t="n">
+        <f aca="false">G71*(F71-$H$50)^2</f>
+        <v>30.625</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E72" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <f aca="false">F72*G72</f>
+        <v>330</v>
+      </c>
+      <c r="I72" s="10" t="n">
+        <f aca="false">G72*(F72-$H$50)^3</f>
+        <v>411.9375</v>
+      </c>
+      <c r="J72" s="10" t="n">
+        <f aca="false">G72*(F72-$H$50)^2</f>
+        <v>126.75</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E73" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <f aca="false">F73*G73</f>
+        <v>260</v>
+      </c>
+      <c r="I73" s="10" t="n">
+        <f aca="false">G73*(F73-$H$50)^3</f>
+        <v>4492.125</v>
+      </c>
+      <c r="J73" s="10" t="n">
+        <f aca="false">G73*(F73-$H$50)^2</f>
+        <v>544.5</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E74" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2" t="n">
+        <f aca="false">SUM(G68:G73)</f>
+        <v>40</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <f aca="false">SUM(H68:H73)</f>
+        <v>970</v>
+      </c>
+      <c r="I74" s="2" t="n">
+        <f aca="false">SUM(I68:I73)</f>
+        <v>-5246.25</v>
+      </c>
+      <c r="J74" s="2" t="n">
+        <f aca="false">SUM(J68:J73)</f>
+        <v>1577.5</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E75" s="4"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <f aca="false">H74/G74</f>
+        <v>24.25</v>
+      </c>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <f aca="false">SQRT(J74/(G74-1))</f>
+        <v>6.35993065596772</v>
+      </c>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <f aca="false">I74/(H74*H76)</f>
+        <v>-0.850403164311895</v>
+      </c>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E79" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E80" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E81" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" s="5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G81" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <f aca="false">F81*G81</f>
+        <v>7.5</v>
+      </c>
+      <c r="I81" s="10" t="n">
+        <f aca="false">G81*(F81-$H$88)^4</f>
+        <v>78715.31640625</v>
+      </c>
+      <c r="J81" s="10" t="n">
+        <f aca="false">G81*(F81-$H$88)^2</f>
+        <v>280.5625</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E82" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <f aca="false">F82*G82</f>
+        <v>25</v>
+      </c>
+      <c r="I82" s="10" t="n">
+        <f aca="false">G82*(F82-$H$88)^4</f>
+        <v>38122.5078125</v>
+      </c>
+      <c r="J82" s="10" t="n">
+        <f aca="false">G82*(F82-$H$88)^2</f>
+        <v>276.125</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <f aca="false">F83*G83</f>
+        <v>122.5</v>
+      </c>
+      <c r="I83" s="10" t="n">
+        <f aca="false">G83*(F83-$H$88)^4</f>
+        <v>14531.58984375</v>
+      </c>
+      <c r="J83" s="10" t="n">
+        <f aca="false">G83*(F83-$H$88)^2</f>
+        <v>318.9375</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E84" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <f aca="false">F84*G84</f>
+        <v>225</v>
+      </c>
+      <c r="I84" s="10" t="n">
+        <f aca="false">G84*(F84-$H$88)^4</f>
+        <v>93.7890625</v>
+      </c>
+      <c r="J84" s="10" t="n">
+        <f aca="false">G84*(F84-$H$88)^2</f>
+        <v>30.625</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <f aca="false">F85*G85</f>
+        <v>330</v>
+      </c>
+      <c r="I85" s="10" t="n">
+        <f aca="false">G85*(F85-$H$88)^4</f>
+        <v>1338.796875</v>
+      </c>
+      <c r="J85" s="10" t="n">
+        <f aca="false">G85*(F85-$H$88)^2</f>
+        <v>126.75</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E86" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <f aca="false">F86*G86</f>
+        <v>260</v>
+      </c>
+      <c r="I86" s="10" t="n">
+        <f aca="false">G86*(F86-$H$88)^4</f>
+        <v>37060.03125</v>
+      </c>
+      <c r="J86" s="10" t="n">
+        <f aca="false">G86*(F86-$H$88)^2</f>
+        <v>544.5</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E87" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2" t="n">
+        <f aca="false">SUM(G81:G86)</f>
+        <v>40</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <f aca="false">SUM(H81:H86)</f>
+        <v>970</v>
+      </c>
+      <c r="I87" s="2" t="n">
+        <f aca="false">SUM(I81:I86)</f>
+        <v>169862.03125</v>
+      </c>
+      <c r="J87" s="2" t="n">
+        <f aca="false">SUM(J81:J86)</f>
+        <v>1577.5</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E88" s="4"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <f aca="false">H87/G87</f>
+        <v>24.25</v>
+      </c>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <f aca="false">SQRT(J87/(G87-1))</f>
+        <v>6.35993065596772</v>
+      </c>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <f aca="false">I87/(H88*H89^4)</f>
+        <v>4.28129396291201</v>
+      </c>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E91" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E92" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E93" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" s="5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G93" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" s="2"/>
+      <c r="I93" s="9" t="n">
+        <f aca="false">G93</f>
+        <v>1</v>
+      </c>
+      <c r="J93" s="0" t="n">
+        <f aca="false">G99*0.9</f>
+        <v>37.8</v>
+      </c>
+      <c r="K93" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E94" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H94" s="2"/>
+      <c r="I94" s="9" t="n">
+        <f aca="false">SUM($G$93:G94)</f>
+        <v>4</v>
+      </c>
+      <c r="J94" s="0" t="n">
+        <f aca="false">G99*0.1</f>
+        <v>4.2</v>
+      </c>
+      <c r="K94" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E95" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H95" s="2"/>
+      <c r="I95" s="9" t="n">
+        <f aca="false">SUM($G$93:G95)</f>
+        <v>12</v>
+      </c>
+      <c r="J95" s="0" t="n">
+        <f aca="false">G99*0.25</f>
+        <v>10.5</v>
+      </c>
+      <c r="K95" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E96" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H96" s="2"/>
+      <c r="I96" s="9" t="n">
+        <f aca="false">SUM($G$93:G96)</f>
+        <v>22</v>
+      </c>
+      <c r="J96" s="0" t="n">
+        <f aca="false">G99*0.75</f>
+        <v>31.5</v>
+      </c>
+      <c r="K96" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E97" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="H97" s="2"/>
+      <c r="I97" s="9" t="n">
+        <f aca="false">SUM($G$93:G97)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H98" s="2"/>
+      <c r="I98" s="9" t="n">
+        <f aca="false">SUM($G$93:G98)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E99" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2" t="n">
+        <f aca="false">SUM(G93:G98)</f>
+        <v>42</v>
+      </c>
+      <c r="H99" s="2"/>
+      <c r="I99" s="9"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E100" s="4"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I100" s="10" t="n">
+        <f aca="false">30+(0.9*G99-34)/(8)*5</f>
+        <v>32.375</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I101" s="10" t="n">
+        <f aca="false">15+(0.25*G99-4)/(8)*5</f>
+        <v>19.0625</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E102" s="2"/>
+      <c r="F102" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G102" s="2" t="n">
+        <f aca="false">(I102-I101)/(2*(I100-I103))</f>
+        <v>0.28683574879227</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I102" s="10" t="n">
+        <f aca="false">25+(0.75*G99-22)/(12)*5</f>
+        <v>28.9583333333333</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H103" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I103" s="10" t="n">
+        <f aca="false">15+(0.1*G99-4)/(8)*5</f>
+        <v>15.125</v>
       </c>
     </row>
   </sheetData>
@@ -1999,17 +2898,17 @@
   </sheetPr>
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="1" sqref="A1:K5 G16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="12.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.3"/>
   </cols>
   <sheetData>
@@ -2059,10 +2958,10 @@
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -2074,22 +2973,22 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="L2" s="1"/>
       <c r="N2" s="2"/>
@@ -2104,10 +3003,10 @@
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -2119,22 +3018,22 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="L3" s="1"/>
       <c r="N3" s="2"/>
@@ -2149,37 +3048,37 @@
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -2195,37 +3094,37 @@
     </row>
     <row r="5" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="2"/>

--- a/levene.xlsx
+++ b/levene.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="correlación" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
   <si>
     <t xml:space="preserve">$Y_i$</t>
   </si>
@@ -140,109 +140,46 @@
     <t xml:space="preserve">$[90-100]$</t>
   </si>
   <si>
-    <t xml:space="preserve">Pearson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$y_i$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${f}_i$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$y_i*f_i$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$f_i(y_i-\overline{x})^2$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$[5,10)$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$[10,15)$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$[15,20)$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$[20,25)$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$[25,30]$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$[30,35]$</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $\sum$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$\overline{x}$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$Me$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$s$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$Mo$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As(Me)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As(Mo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yule Bowley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$Me=Q_2$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$Q_1$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$Q_3$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$f_i(y_i-\overline{x})^3 $</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curtosis-s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$f_i(y_i-\overline{x}) ^4 $</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curtosis-p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$P_{90}$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$P_{10}$</t>
+    <t xml:space="preserve">CLASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fi*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hi%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi*%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S*</t>
   </si>
   <si>
     <t xml:space="preserve">$[y_1-y_2)$</t>
@@ -325,7 +262,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -406,7 +343,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -443,19 +380,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -476,18 +401,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K102" activeCellId="0" sqref="K102"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E30" activeCellId="1" sqref="A1:K5 E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="18.06"/>
@@ -1581,7 +1504,7 @@
       </c>
       <c r="H36" s="2" t="n">
         <f aca="false">SUM($F$31:F43)</f>
-        <v>75.5</v>
+        <v>84</v>
       </c>
       <c r="I36" s="6" t="n">
         <f aca="false">F36/$F$39</f>
@@ -1593,7 +1516,7 @@
       </c>
       <c r="K36" s="6" t="n">
         <f aca="false">H36/$F$19</f>
-        <v>1.00666666666667</v>
+        <v>1.12</v>
       </c>
       <c r="L36" s="6" t="n">
         <f aca="false">I36*100</f>
@@ -1605,7 +1528,7 @@
       </c>
       <c r="N36" s="6" t="n">
         <f aca="false">K36*100</f>
-        <v>100.666666666667</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1621,7 +1544,7 @@
       </c>
       <c r="H37" s="2" t="n">
         <f aca="false">SUM($F$31:F44)</f>
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I37" s="6" t="n">
         <f aca="false">F37/$F$39</f>
@@ -1633,7 +1556,7 @@
       </c>
       <c r="K37" s="6" t="n">
         <f aca="false">H37/$F$19</f>
-        <v>1.17333333333333</v>
+        <v>1.12</v>
       </c>
       <c r="L37" s="6" t="n">
         <f aca="false">I37*100</f>
@@ -1645,7 +1568,7 @@
       </c>
       <c r="N37" s="6" t="n">
         <f aca="false">K37*100</f>
-        <v>117.333333333333</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1661,7 +1584,7 @@
       </c>
       <c r="H38" s="2" t="n">
         <f aca="false">SUM($F$31:F45)</f>
-        <v>105.5</v>
+        <v>84</v>
       </c>
       <c r="I38" s="6" t="n">
         <f aca="false">F38/$F$39</f>
@@ -1673,7 +1596,7 @@
       </c>
       <c r="K38" s="6" t="n">
         <f aca="false">H38/$F$19</f>
-        <v>1.40666666666667</v>
+        <v>1.12</v>
       </c>
       <c r="L38" s="6" t="n">
         <f aca="false">I38*100</f>
@@ -1685,7 +1608,7 @@
       </c>
       <c r="N38" s="6" t="n">
         <f aca="false">K38*100</f>
-        <v>140.666666666667</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,10 +1643,8 @@
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="1" t="s">
-        <v>39</v>
-      </c>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1736,7 +1657,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E42" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>40</v>
@@ -1747,1137 +1668,317 @@
       <c r="H42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J42" s="2" t="s">
+      <c r="I42" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="J42" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G43" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="n">
-        <f aca="false">F43*G43</f>
-        <v>7.5</v>
-      </c>
-      <c r="I43" s="9" t="n">
-        <f aca="false">G43</f>
-        <v>1</v>
-      </c>
-      <c r="J43" s="10" t="n">
-        <f aca="false">G43*(F43-$H$50)^2</f>
-        <v>280.5625</v>
-      </c>
-      <c r="K43" s="10"/>
+      <c r="E43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H44" s="2" t="n">
-        <f aca="false">F44*G44</f>
-        <v>25</v>
-      </c>
-      <c r="I44" s="9" t="n">
-        <f aca="false">SUM($G$43:G44)</f>
-        <v>3</v>
-      </c>
-      <c r="J44" s="10" t="n">
-        <f aca="false">G44*(F44-$H$50)^2</f>
-        <v>276.125</v>
-      </c>
-      <c r="K44" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F45" s="2" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="H45" s="2" t="n">
-        <f aca="false">F45*G45</f>
-        <v>122.5</v>
-      </c>
-      <c r="I45" s="9" t="n">
-        <f aca="false">SUM($G$43:G45)</f>
-        <v>10</v>
-      </c>
-      <c r="J45" s="10" t="n">
-        <f aca="false">G45*(F45-$H$50)^2</f>
-        <v>318.9375</v>
-      </c>
-      <c r="K45" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46" s="2" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="H46" s="2" t="n">
-        <f aca="false">F46*G46</f>
-        <v>225</v>
-      </c>
-      <c r="I46" s="9" t="n">
-        <f aca="false">SUM($G$43:G46)</f>
-        <v>20</v>
-      </c>
-      <c r="J46" s="10" t="n">
-        <f aca="false">G46*(F46-$H$50)^2</f>
-        <v>30.625</v>
-      </c>
-      <c r="K46" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="G47" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="H47" s="2" t="n">
-        <f aca="false">F47*G47</f>
-        <v>330</v>
-      </c>
-      <c r="I47" s="9" t="n">
-        <f aca="false">SUM($G$43:G47)</f>
-        <v>32</v>
-      </c>
-      <c r="J47" s="10" t="n">
-        <f aca="false">G47*(F47-$H$50)^2</f>
-        <v>126.75</v>
-      </c>
-      <c r="K47" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="2" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="G48" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="H48" s="2" t="n">
-        <f aca="false">F48*G48</f>
-        <v>260</v>
-      </c>
-      <c r="I48" s="9" t="n">
-        <f aca="false">SUM($G$43:G48)</f>
-        <v>40</v>
-      </c>
-      <c r="J48" s="10" t="n">
-        <f aca="false">G48*(F48-$H$50)^2</f>
-        <v>544.5</v>
-      </c>
-      <c r="K48" s="10"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E49" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2" t="n">
-        <f aca="false">SUM(G43:G48)</f>
-        <v>40</v>
-      </c>
-      <c r="H49" s="2" t="n">
-        <f aca="false">SUM(H43:H48)</f>
-        <v>970</v>
-      </c>
-      <c r="I49" s="9"/>
-      <c r="J49" s="2" t="n">
-        <f aca="false">SUM(J43:J48)</f>
-        <v>1577.5</v>
-      </c>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="E49" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.73</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.7</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.74</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.31</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.49</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.48</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="N49" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.8</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E50" s="4"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H50" s="2" t="n">
-        <f aca="false">H49/G49</f>
-        <v>24.25</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J50" s="11" t="n">
-        <f aca="false">20+(20-10)/(10)*5</f>
-        <v>25</v>
-      </c>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
+      <c r="E50" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.32</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.26</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.94</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.84</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.41</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.87</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.57</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.29</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H51" s="2" t="n">
-        <f aca="false">SQRT(J49/(G49-1))</f>
-        <v>6.35993065596772</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J51" s="11" t="n">
-        <f aca="false">25+(10-7)/(3+2)*5</f>
-        <v>28</v>
-      </c>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
+      <c r="E51" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.31</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.12</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.85</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.16</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.83</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.45</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.53</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.95</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H52" s="2" t="n">
-        <f aca="false">3*(H50-J50)/H51</f>
-        <v>-0.353777442194084</v>
-      </c>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
+      <c r="E52" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.45</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.94</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.57</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.48</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.55</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.24</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.83</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.92</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H53" s="2" t="n">
-        <f aca="false">(H50-J51)/H51</f>
-        <v>-0.589629070323473</v>
-      </c>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E54" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E55" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E56" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" s="5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G56" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="n">
-        <f aca="false">F56*G56</f>
-        <v>7.5</v>
-      </c>
-      <c r="I56" s="9" t="n">
-        <f aca="false">G56</f>
-        <v>1</v>
-      </c>
-      <c r="J56" s="10"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E57" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F57" s="2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="G57" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H57" s="2" t="n">
-        <f aca="false">F57*G57</f>
-        <v>25</v>
-      </c>
-      <c r="I57" s="9" t="n">
-        <f aca="false">SUM($G$56:G57)</f>
-        <v>3</v>
-      </c>
-      <c r="J57" s="10"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E58" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F58" s="2" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="G58" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="H58" s="2" t="n">
-        <f aca="false">F58*G58</f>
-        <v>122.5</v>
-      </c>
-      <c r="I58" s="9" t="n">
-        <f aca="false">SUM($G$56:G58)</f>
-        <v>10</v>
-      </c>
-      <c r="J58" s="10"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E59" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F59" s="2" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="G59" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="H59" s="2" t="n">
-        <f aca="false">F59*G59</f>
-        <v>225</v>
-      </c>
-      <c r="I59" s="9" t="n">
-        <f aca="false">SUM($G$56:G59)</f>
-        <v>20</v>
-      </c>
-      <c r="J59" s="10"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E60" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F60" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="G60" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="H60" s="2" t="n">
-        <f aca="false">F60*G60</f>
-        <v>330</v>
-      </c>
-      <c r="I60" s="9" t="n">
-        <f aca="false">SUM($G$56:G60)</f>
-        <v>32</v>
-      </c>
-      <c r="J60" s="10"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E61" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F61" s="2" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="G61" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="H61" s="2" t="n">
-        <f aca="false">F61*G61</f>
-        <v>260</v>
-      </c>
-      <c r="I61" s="9" t="n">
-        <f aca="false">SUM($G$56:G61)</f>
-        <v>40</v>
-      </c>
-      <c r="J61" s="10"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E62" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2" t="n">
-        <f aca="false">SUM(G56:G61)</f>
-        <v>40</v>
-      </c>
-      <c r="H62" s="2" t="n">
-        <f aca="false">SUM(H56:H61)</f>
-        <v>970</v>
-      </c>
-      <c r="I62" s="9"/>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E63" s="4"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I63" s="11" t="n">
-        <f aca="false">20+(20-10)/(10)*5</f>
-        <v>25</v>
-      </c>
-      <c r="J63" s="11"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I64" s="10" t="n">
-        <f aca="false">15+(10-3)/(7)*5</f>
-        <v>20</v>
-      </c>
-      <c r="J64" s="10"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E65" s="2"/>
-      <c r="F65" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G65" s="2" t="n">
-        <f aca="false">(I64+I65-2*I63)/(I65-I64)</f>
-        <v>-0.0909090909090904</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I65" s="10" t="n">
-        <f aca="false">25+(30-20)/(12)*5</f>
-        <v>29.1666666666667</v>
-      </c>
-      <c r="J65" s="10"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E66" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E67" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E68" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F68" s="5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G68" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2" t="n">
-        <f aca="false">F68*G68</f>
-        <v>7.5</v>
-      </c>
-      <c r="I68" s="10" t="n">
-        <f aca="false">G68*(F68-$H$50)^3</f>
-        <v>-4699.421875</v>
-      </c>
-      <c r="J68" s="10" t="n">
-        <f aca="false">G68*(F68-$H$50)^2</f>
-        <v>280.5625</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E69" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F69" s="2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="G69" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H69" s="2" t="n">
-        <f aca="false">F69*G69</f>
-        <v>25</v>
-      </c>
-      <c r="I69" s="10" t="n">
-        <f aca="false">G69*(F69-$H$50)^3</f>
-        <v>-3244.46875</v>
-      </c>
-      <c r="J69" s="10" t="n">
-        <f aca="false">G69*(F69-$H$50)^2</f>
-        <v>276.125</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F70" s="2" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="G70" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="H70" s="2" t="n">
-        <f aca="false">F70*G70</f>
-        <v>122.5</v>
-      </c>
-      <c r="I70" s="10" t="n">
-        <f aca="false">G70*(F70-$H$50)^3</f>
-        <v>-2152.828125</v>
-      </c>
-      <c r="J70" s="10" t="n">
-        <f aca="false">G70*(F70-$H$50)^2</f>
-        <v>318.9375</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E71" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F71" s="2" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="G71" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="H71" s="2" t="n">
-        <f aca="false">F71*G71</f>
-        <v>225</v>
-      </c>
-      <c r="I71" s="10" t="n">
-        <f aca="false">G71*(F71-$H$50)^3</f>
-        <v>-53.59375</v>
-      </c>
-      <c r="J71" s="10" t="n">
-        <f aca="false">G71*(F71-$H$50)^2</f>
-        <v>30.625</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E72" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F72" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="G72" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="H72" s="2" t="n">
-        <f aca="false">F72*G72</f>
-        <v>330</v>
-      </c>
-      <c r="I72" s="10" t="n">
-        <f aca="false">G72*(F72-$H$50)^3</f>
-        <v>411.9375</v>
-      </c>
-      <c r="J72" s="10" t="n">
-        <f aca="false">G72*(F72-$H$50)^2</f>
-        <v>126.75</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E73" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F73" s="2" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="G73" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="H73" s="2" t="n">
-        <f aca="false">F73*G73</f>
-        <v>260</v>
-      </c>
-      <c r="I73" s="10" t="n">
-        <f aca="false">G73*(F73-$H$50)^3</f>
-        <v>4492.125</v>
-      </c>
-      <c r="J73" s="10" t="n">
-        <f aca="false">G73*(F73-$H$50)^2</f>
-        <v>544.5</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E74" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2" t="n">
-        <f aca="false">SUM(G68:G73)</f>
-        <v>40</v>
-      </c>
-      <c r="H74" s="2" t="n">
-        <f aca="false">SUM(H68:H73)</f>
-        <v>970</v>
-      </c>
-      <c r="I74" s="2" t="n">
-        <f aca="false">SUM(I68:I73)</f>
-        <v>-5246.25</v>
-      </c>
-      <c r="J74" s="2" t="n">
-        <f aca="false">SUM(J68:J73)</f>
-        <v>1577.5</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E75" s="4"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H75" s="2" t="n">
-        <f aca="false">H74/G74</f>
-        <v>24.25</v>
-      </c>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H76" s="2" t="n">
-        <f aca="false">SQRT(J74/(G74-1))</f>
-        <v>6.35993065596772</v>
-      </c>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H77" s="2" t="n">
-        <f aca="false">I74/(H74*H76)</f>
-        <v>-0.850403164311895</v>
-      </c>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E79" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E80" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E81" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F81" s="5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G81" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H81" s="2" t="n">
-        <f aca="false">F81*G81</f>
-        <v>7.5</v>
-      </c>
-      <c r="I81" s="10" t="n">
-        <f aca="false">G81*(F81-$H$88)^4</f>
-        <v>78715.31640625</v>
-      </c>
-      <c r="J81" s="10" t="n">
-        <f aca="false">G81*(F81-$H$88)^2</f>
-        <v>280.5625</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E82" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F82" s="2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="G82" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H82" s="2" t="n">
-        <f aca="false">F82*G82</f>
-        <v>25</v>
-      </c>
-      <c r="I82" s="10" t="n">
-        <f aca="false">G82*(F82-$H$88)^4</f>
-        <v>38122.5078125</v>
-      </c>
-      <c r="J82" s="10" t="n">
-        <f aca="false">G82*(F82-$H$88)^2</f>
-        <v>276.125</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E83" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F83" s="2" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="G83" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="H83" s="2" t="n">
-        <f aca="false">F83*G83</f>
-        <v>122.5</v>
-      </c>
-      <c r="I83" s="10" t="n">
-        <f aca="false">G83*(F83-$H$88)^4</f>
-        <v>14531.58984375</v>
-      </c>
-      <c r="J83" s="10" t="n">
-        <f aca="false">G83*(F83-$H$88)^2</f>
-        <v>318.9375</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E84" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F84" s="2" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="G84" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="H84" s="2" t="n">
-        <f aca="false">F84*G84</f>
-        <v>225</v>
-      </c>
-      <c r="I84" s="10" t="n">
-        <f aca="false">G84*(F84-$H$88)^4</f>
-        <v>93.7890625</v>
-      </c>
-      <c r="J84" s="10" t="n">
-        <f aca="false">G84*(F84-$H$88)^2</f>
-        <v>30.625</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E85" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F85" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="G85" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="H85" s="2" t="n">
-        <f aca="false">F85*G85</f>
-        <v>330</v>
-      </c>
-      <c r="I85" s="10" t="n">
-        <f aca="false">G85*(F85-$H$88)^4</f>
-        <v>1338.796875</v>
-      </c>
-      <c r="J85" s="10" t="n">
-        <f aca="false">G85*(F85-$H$88)^2</f>
-        <v>126.75</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E86" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F86" s="2" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="G86" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="H86" s="2" t="n">
-        <f aca="false">F86*G86</f>
-        <v>260</v>
-      </c>
-      <c r="I86" s="10" t="n">
-        <f aca="false">G86*(F86-$H$88)^4</f>
-        <v>37060.03125</v>
-      </c>
-      <c r="J86" s="10" t="n">
-        <f aca="false">G86*(F86-$H$88)^2</f>
-        <v>544.5</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E87" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2" t="n">
-        <f aca="false">SUM(G81:G86)</f>
-        <v>40</v>
-      </c>
-      <c r="H87" s="2" t="n">
-        <f aca="false">SUM(H81:H86)</f>
-        <v>970</v>
-      </c>
-      <c r="I87" s="2" t="n">
-        <f aca="false">SUM(I81:I86)</f>
-        <v>169862.03125</v>
-      </c>
-      <c r="J87" s="2" t="n">
-        <f aca="false">SUM(J81:J86)</f>
-        <v>1577.5</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E88" s="4"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H88" s="2" t="n">
-        <f aca="false">H87/G87</f>
-        <v>24.25</v>
-      </c>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H89" s="2" t="n">
-        <f aca="false">SQRT(J87/(G87-1))</f>
-        <v>6.35993065596772</v>
-      </c>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H90" s="2" t="n">
-        <f aca="false">I87/(H88*H89^4)</f>
-        <v>4.28129396291201</v>
-      </c>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E91" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F93" s="5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G93" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93" s="2"/>
-      <c r="I93" s="9" t="n">
-        <f aca="false">G93</f>
-        <v>1</v>
-      </c>
-      <c r="J93" s="0" t="n">
-        <f aca="false">G99*0.9</f>
-        <v>37.8</v>
-      </c>
-      <c r="K93" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E94" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F94" s="2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="G94" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H94" s="2"/>
-      <c r="I94" s="9" t="n">
-        <f aca="false">SUM($G$93:G94)</f>
-        <v>4</v>
-      </c>
-      <c r="J94" s="0" t="n">
-        <f aca="false">G99*0.1</f>
-        <v>4.2</v>
-      </c>
-      <c r="K94" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E95" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F95" s="2" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="G95" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="H95" s="2"/>
-      <c r="I95" s="9" t="n">
-        <f aca="false">SUM($G$93:G95)</f>
-        <v>12</v>
-      </c>
-      <c r="J95" s="0" t="n">
-        <f aca="false">G99*0.25</f>
-        <v>10.5</v>
-      </c>
-      <c r="K95" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E96" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F96" s="2" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="G96" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="H96" s="2"/>
-      <c r="I96" s="9" t="n">
-        <f aca="false">SUM($G$93:G96)</f>
-        <v>22</v>
-      </c>
-      <c r="J96" s="0" t="n">
-        <f aca="false">G99*0.75</f>
-        <v>31.5</v>
-      </c>
-      <c r="K96" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E97" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F97" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="G97" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="H97" s="2"/>
-      <c r="I97" s="9" t="n">
-        <f aca="false">SUM($G$93:G97)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E98" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F98" s="2" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="G98" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="H98" s="2"/>
-      <c r="I98" s="9" t="n">
-        <f aca="false">SUM($G$93:G98)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E99" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2" t="n">
-        <f aca="false">SUM(G93:G98)</f>
-        <v>42</v>
-      </c>
-      <c r="H99" s="2"/>
-      <c r="I99" s="9"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E100" s="4"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I100" s="10" t="n">
-        <f aca="false">30+(0.9*G99-34)/(8)*5</f>
-        <v>32.375</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I101" s="10" t="n">
-        <f aca="false">15+(0.25*G99-4)/(8)*5</f>
-        <v>19.0625</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E102" s="2"/>
-      <c r="F102" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G102" s="2" t="n">
-        <f aca="false">(I102-I101)/(2*(I100-I103))</f>
-        <v>0.28683574879227</v>
-      </c>
-      <c r="H102" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I102" s="10" t="n">
-        <f aca="false">25+(0.75*G99-22)/(12)*5</f>
-        <v>28.9583333333333</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H103" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="I103" s="10" t="n">
-        <f aca="false">15+(0.1*G99-4)/(8)*5</f>
-        <v>15.125</v>
+      <c r="E53" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.29</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.89</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.43</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.48</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.31</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.66</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.65</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <f aca="true">ROUND( RAND(),2)</f>
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -2898,17 +1999,17 @@
   </sheetPr>
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="1" sqref="A1:K5 G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="12.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.3"/>
   </cols>
   <sheetData>
@@ -2958,10 +2059,10 @@
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -2973,22 +2074,22 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="L2" s="1"/>
       <c r="N2" s="2"/>
@@ -3003,10 +2104,10 @@
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -3018,22 +2119,22 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="L3" s="1"/>
       <c r="N3" s="2"/>
@@ -3048,37 +2149,37 @@
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -3094,37 +2195,37 @@
     </row>
     <row r="5" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="2"/>
